--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27714.81054712708</v>
+        <v>27278.49487268007</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218615.8834996856</v>
+        <v>218615.8834996874</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>249.2011798560694</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>19.000717692571</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
@@ -750,10 +750,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>86.53445461930097</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -786,7 +786,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>71.04210115461422</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>156.434921477533</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>76.0766819213495</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.7458933418371</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
         <v>411.9429466803539</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>9.103821815409564</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>11.26684871730003</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>3.289297421901674</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>16.13626804871356</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>207.9669274071297</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
         <v>411.9429466803539</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>77.12386290041611</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>56.27865108227017</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>37.58007754971809</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
@@ -1263,16 +1263,16 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>10.1518352840637</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>86.22604835954583</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>235.9510752683593</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>298.208646707806</v>
       </c>
       <c r="C11" t="n">
-        <v>286.2199636654878</v>
+        <v>286.2199636654877</v>
       </c>
       <c r="D11" t="n">
-        <v>277.2012677100158</v>
+        <v>277.2012677100157</v>
       </c>
       <c r="E11" t="n">
         <v>298.9434052799213</v>
       </c>
       <c r="F11" t="n">
-        <v>318.1152213678985</v>
+        <v>318.1152213678984</v>
       </c>
       <c r="G11" t="n">
-        <v>320.048489265321</v>
+        <v>320.0484892653209</v>
       </c>
       <c r="H11" t="n">
-        <v>210.6983655130889</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>79.19456938825904</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>160.442025508113</v>
+        <v>160.4420255081129</v>
       </c>
       <c r="V11" t="n">
-        <v>241.7150239479852</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>222.0027143453286</v>
       </c>
       <c r="X11" t="n">
-        <v>286.3153816586887</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>297.7119794548874</v>
       </c>
     </row>
     <row r="12">
@@ -1449,10 +1449,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>145.5211447459515</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541863</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.82535758250312</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>76.0253524279036</v>
+        <v>76.02535242790354</v>
       </c>
       <c r="D13" t="n">
-        <v>59.64671682548199</v>
+        <v>59.64671682548193</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.59446668126138</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>59.06139100944769</v>
       </c>
       <c r="G13" t="n">
-        <v>66.54584127709514</v>
+        <v>75.33609373079553</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>50.86655653831535</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>119.6782075553164</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>138.9527062374451</v>
+        <v>138.952706237445</v>
       </c>
       <c r="U13" t="n">
         <v>192.4238797007582</v>
@@ -1588,13 +1588,13 @@
         <v>166.2334939821287</v>
       </c>
       <c r="W13" t="n">
-        <v>191.400380052742</v>
+        <v>191.4003800527419</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>6.003661727112643</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>127.9203498046127</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>298.208646707806</v>
       </c>
       <c r="C14" t="n">
-        <v>286.2199636654877</v>
+        <v>159.9345561450023</v>
       </c>
       <c r="D14" t="n">
         <v>277.2012677100157</v>
       </c>
       <c r="E14" t="n">
-        <v>298.9434052799212</v>
+        <v>298.9434052799213</v>
       </c>
       <c r="F14" t="n">
         <v>318.1152213678984</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>79.19456938825897</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>160.4420255081129</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>241.7150239479851</v>
@@ -1670,10 +1670,10 @@
         <v>267.015123425942</v>
       </c>
       <c r="X14" t="n">
-        <v>229.9986237458362</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>297.7119794548874</v>
       </c>
     </row>
     <row r="15">
@@ -1698,7 +1698,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914445</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
@@ -1743,7 +1743,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5461750406456</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
         <v>238.9027100790231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>89.82535758250306</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02535242790353</v>
+        <v>76.02535242790354</v>
       </c>
       <c r="D16" t="n">
-        <v>59.64671682548192</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>58.59446668126138</v>
       </c>
       <c r="F16" t="n">
-        <v>13.43294423981575</v>
+        <v>59.06139100944769</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>75.33609373079553</v>
       </c>
       <c r="H16" t="n">
-        <v>65.88446135348593</v>
+        <v>65.88446135348595</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.86655653831529</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>119.6782075553163</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>138.952706237445</v>
       </c>
       <c r="U16" t="n">
-        <v>192.4238797007581</v>
+        <v>105.8527807832458</v>
       </c>
       <c r="V16" t="n">
-        <v>166.2334939821286</v>
+        <v>166.2334939821287</v>
       </c>
       <c r="W16" t="n">
-        <v>191.4003800527419</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>137.045482048545</v>
       </c>
       <c r="Y16" t="n">
         <v>127.9203498046127</v>
@@ -1898,7 +1898,7 @@
         <v>55.986291663842</v>
       </c>
       <c r="U17" t="n">
-        <v>86.2074177806891</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V17" t="n">
         <v>167.4804162205611</v>
@@ -1971,7 +1971,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>151.2714921173871</v>
+        <v>136.7060008318836</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -1980,7 +1980,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5461750406456</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
         <v>238.9027100790231</v>
@@ -2175,7 +2175,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>84.37298759326521</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
         <v>67.69846245683961</v>
@@ -2208,7 +2208,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>136.7060008318832</v>
       </c>
       <c r="T21" t="n">
         <v>186.7982527956746</v>
@@ -2409,7 +2409,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
@@ -2457,7 +2457,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>224.3372187935189</v>
       </c>
       <c r="X24" t="n">
         <v>195.9378182409833</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.4420352612603</v>
+        <v>261.4420352612605</v>
       </c>
       <c r="C26" t="n">
-        <v>249.4533522189421</v>
+        <v>249.4533522189423</v>
       </c>
       <c r="D26" t="n">
-        <v>240.43465626347</v>
+        <v>240.4346562634702</v>
       </c>
       <c r="E26" t="n">
-        <v>262.1767938333755</v>
+        <v>262.1767938333758</v>
       </c>
       <c r="F26" t="n">
-        <v>281.3486099213527</v>
+        <v>281.3486099213529</v>
       </c>
       <c r="G26" t="n">
-        <v>283.2818778187752</v>
+        <v>283.2818778187755</v>
       </c>
       <c r="H26" t="n">
-        <v>200.8319927970852</v>
+        <v>200.8319927970854</v>
       </c>
       <c r="I26" t="n">
-        <v>42.42795794171332</v>
+        <v>42.42795794171352</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.69561675437095</v>
+        <v>56.69561675437114</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472031</v>
+        <v>93.45428794472051</v>
       </c>
       <c r="U26" t="n">
-        <v>123.6754140615673</v>
+        <v>123.6754140615675</v>
       </c>
       <c r="V26" t="n">
-        <v>204.9484125014394</v>
+        <v>204.9484125014396</v>
       </c>
       <c r="W26" t="n">
-        <v>230.2485119793963</v>
+        <v>230.2485119793965</v>
       </c>
       <c r="X26" t="n">
-        <v>249.548770212143</v>
+        <v>249.5487702121432</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.9453680083417</v>
+        <v>260.9453680083419</v>
       </c>
     </row>
     <row r="27">
@@ -2682,13 +2682,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>136.7060008318836</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921696</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595739</v>
+        <v>53.05874613595759</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135787</v>
+        <v>39.25874098135807</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893626</v>
+        <v>22.88010537893646</v>
       </c>
       <c r="E28" t="n">
-        <v>21.82785523471571</v>
+        <v>21.82785523471591</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290202</v>
+        <v>22.29477956290222</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228424986</v>
+        <v>38.56948228425006</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694028</v>
+        <v>29.11784990694048</v>
       </c>
       <c r="I28" t="n">
-        <v>14.09994509176963</v>
+        <v>14.09994509176983</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018694</v>
+        <v>19.36549471018714</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877068</v>
+        <v>82.91159610877088</v>
       </c>
       <c r="T28" t="n">
-        <v>102.1860947908993</v>
+        <v>102.1860947908995</v>
       </c>
       <c r="U28" t="n">
-        <v>155.6572682542125</v>
+        <v>155.6572682542127</v>
       </c>
       <c r="V28" t="n">
-        <v>129.466882535583</v>
+        <v>129.4668825355832</v>
       </c>
       <c r="W28" t="n">
-        <v>154.6337686061962</v>
+        <v>154.6337686061964</v>
       </c>
       <c r="X28" t="n">
-        <v>100.2788706019994</v>
+        <v>100.2788706019996</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.15373835806705</v>
+        <v>91.15373835806724</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>261.4420352612603</v>
+        <v>261.4420352612605</v>
       </c>
       <c r="C29" t="n">
-        <v>249.4533522189421</v>
+        <v>249.4533522189423</v>
       </c>
       <c r="D29" t="n">
-        <v>240.43465626347</v>
+        <v>240.4346562634702</v>
       </c>
       <c r="E29" t="n">
-        <v>262.1767938333755</v>
+        <v>262.1767938333758</v>
       </c>
       <c r="F29" t="n">
-        <v>281.3486099213527</v>
+        <v>281.3486099213529</v>
       </c>
       <c r="G29" t="n">
-        <v>283.2818778187752</v>
+        <v>283.2818778187755</v>
       </c>
       <c r="H29" t="n">
-        <v>200.8319927970852</v>
+        <v>200.8319927970854</v>
       </c>
       <c r="I29" t="n">
-        <v>42.42795794171332</v>
+        <v>42.42795794171352</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.69561675437095</v>
+        <v>56.6956167543709</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472031</v>
+        <v>93.45428794472051</v>
       </c>
       <c r="U29" t="n">
-        <v>123.6754140615673</v>
+        <v>123.6754140615675</v>
       </c>
       <c r="V29" t="n">
-        <v>204.9484125014394</v>
+        <v>204.9484125014396</v>
       </c>
       <c r="W29" t="n">
-        <v>230.2485119793963</v>
+        <v>230.2485119793965</v>
       </c>
       <c r="X29" t="n">
-        <v>249.548770212143</v>
+        <v>249.5487702121432</v>
       </c>
       <c r="Y29" t="n">
-        <v>260.9453680083417</v>
+        <v>260.9453680083419</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2886,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326549</v>
       </c>
       <c r="I30" t="n">
         <v>67.69846245683961</v>
@@ -2925,7 +2925,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>201.7443531921696</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595739</v>
+        <v>53.05874613595759</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135787</v>
+        <v>39.25874098135807</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893626</v>
+        <v>22.88010537893646</v>
       </c>
       <c r="E31" t="n">
-        <v>21.82785523471571</v>
+        <v>21.82785523471591</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290202</v>
+        <v>22.29477956290222</v>
       </c>
       <c r="G31" t="n">
-        <v>38.56948228424986</v>
+        <v>38.56948228425006</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694028</v>
+        <v>29.11784990694048</v>
       </c>
       <c r="I31" t="n">
-        <v>14.09994509176963</v>
+        <v>14.09994509176983</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018694</v>
+        <v>19.36549471018714</v>
       </c>
       <c r="S31" t="n">
-        <v>82.91159610877068</v>
+        <v>82.91159610877088</v>
       </c>
       <c r="T31" t="n">
-        <v>102.1860947908993</v>
+        <v>102.1860947908995</v>
       </c>
       <c r="U31" t="n">
-        <v>155.6572682542125</v>
+        <v>155.6572682542127</v>
       </c>
       <c r="V31" t="n">
-        <v>129.466882535583</v>
+        <v>129.4668825355832</v>
       </c>
       <c r="W31" t="n">
-        <v>154.6337686061962</v>
+        <v>154.6337686061964</v>
       </c>
       <c r="X31" t="n">
-        <v>100.2788706019994</v>
+        <v>100.2788706019996</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.15373835806705</v>
+        <v>91.15373835806724</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3029,25 @@
         <v>253.327175636089</v>
       </c>
       <c r="C32" t="n">
-        <v>241.3384925937708</v>
+        <v>241.3384925937707</v>
       </c>
       <c r="D32" t="n">
         <v>232.3197966382987</v>
       </c>
       <c r="E32" t="n">
-        <v>254.0619342082043</v>
+        <v>254.0619342082042</v>
       </c>
       <c r="F32" t="n">
         <v>273.2337502961814</v>
       </c>
       <c r="G32" t="n">
-        <v>275.167018193604</v>
+        <v>275.1670181936039</v>
       </c>
       <c r="H32" t="n">
-        <v>192.7171331719139</v>
+        <v>192.7171331719138</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31309831654201</v>
+        <v>34.31309831654195</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.58075712919964</v>
+        <v>48.58075712919958</v>
       </c>
       <c r="T32" t="n">
-        <v>85.339428319549</v>
+        <v>85.33942831954894</v>
       </c>
       <c r="U32" t="n">
-        <v>115.560554436396</v>
+        <v>115.5605544363959</v>
       </c>
       <c r="V32" t="n">
         <v>196.8335528762681</v>
@@ -3126,7 +3126,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>53.13297117133622</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.94388651078609</v>
+        <v>44.94388651078603</v>
       </c>
       <c r="C34" t="n">
-        <v>31.14388135618657</v>
+        <v>31.14388135618651</v>
       </c>
       <c r="D34" t="n">
-        <v>14.76524575376496</v>
+        <v>14.7652457537649</v>
       </c>
       <c r="E34" t="n">
-        <v>13.71299560954441</v>
+        <v>13.71299560954435</v>
       </c>
       <c r="F34" t="n">
-        <v>14.17991993773072</v>
+        <v>14.17991993773066</v>
       </c>
       <c r="G34" t="n">
-        <v>30.45462265907855</v>
+        <v>30.4546226590785</v>
       </c>
       <c r="H34" t="n">
-        <v>21.00299028176897</v>
+        <v>21.00299028176892</v>
       </c>
       <c r="I34" t="n">
-        <v>5.985085466598321</v>
+        <v>5.985085466598264</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.25063508501563</v>
+        <v>11.25063508501557</v>
       </c>
       <c r="S34" t="n">
-        <v>74.79673648359937</v>
+        <v>74.79673648359932</v>
       </c>
       <c r="T34" t="n">
-        <v>94.07123516572801</v>
+        <v>94.07123516572796</v>
       </c>
       <c r="U34" t="n">
-        <v>147.5424086290412</v>
+        <v>147.5424086290411</v>
       </c>
       <c r="V34" t="n">
-        <v>121.3520229104117</v>
+        <v>121.3520229104116</v>
       </c>
       <c r="W34" t="n">
         <v>146.5189089810249</v>
       </c>
       <c r="X34" t="n">
-        <v>92.16401097682805</v>
+        <v>92.164010976828</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.03887873289574</v>
+        <v>83.03887873289568</v>
       </c>
     </row>
     <row r="35">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3411,7 +3411,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.0306218014135</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="37">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>223.974038980382</v>
+        <v>223.9740389803821</v>
       </c>
       <c r="C41" t="n">
-        <v>211.9853559380637</v>
+        <v>211.9853559380638</v>
       </c>
       <c r="D41" t="n">
-        <v>202.9666599825917</v>
+        <v>202.9666599825918</v>
       </c>
       <c r="E41" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F41" t="n">
-        <v>243.8806136404744</v>
+        <v>243.8806136404745</v>
       </c>
       <c r="G41" t="n">
-        <v>245.8138815378969</v>
+        <v>245.813881537897</v>
       </c>
       <c r="H41" t="n">
-        <v>163.3639965162069</v>
+        <v>163.363996516207</v>
       </c>
       <c r="I41" t="n">
-        <v>4.959961660835006</v>
+        <v>4.959961660835091</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.22762047349264</v>
+        <v>19.22762047349272</v>
       </c>
       <c r="T41" t="n">
-        <v>55.986291663842</v>
+        <v>55.98629166384208</v>
       </c>
       <c r="U41" t="n">
-        <v>86.20741778068896</v>
+        <v>86.20741778068904</v>
       </c>
       <c r="V41" t="n">
-        <v>167.4804162205611</v>
+        <v>167.4804162205612</v>
       </c>
       <c r="W41" t="n">
-        <v>192.780515698518</v>
+        <v>192.7805156985181</v>
       </c>
       <c r="X41" t="n">
-        <v>212.0807739312646</v>
+        <v>212.0807739312647</v>
       </c>
       <c r="Y41" t="n">
-        <v>223.4773717274634</v>
+        <v>223.4773717274635</v>
       </c>
     </row>
     <row r="42">
@@ -3831,13 +3831,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>112.875723691445</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>53.1329711713359</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.59074985507908</v>
+        <v>15.59074985507917</v>
       </c>
       <c r="C43" t="n">
-        <v>1.790744700479564</v>
+        <v>1.79074470047965</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.101486003371548</v>
+        <v>1.101486003371633</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>45.44359982789237</v>
+        <v>45.44359982789246</v>
       </c>
       <c r="T43" t="n">
-        <v>64.71809851002101</v>
+        <v>64.71809851002109</v>
       </c>
       <c r="U43" t="n">
-        <v>118.1892719733342</v>
+        <v>118.1892719733343</v>
       </c>
       <c r="V43" t="n">
-        <v>91.99888625470467</v>
+        <v>91.99888625470476</v>
       </c>
       <c r="W43" t="n">
-        <v>117.1657723253179</v>
+        <v>117.165772325318</v>
       </c>
       <c r="X43" t="n">
-        <v>62.81087432112105</v>
+        <v>62.81087432112113</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.68574207718873</v>
+        <v>53.68574207718882</v>
       </c>
     </row>
     <row r="44">
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>465.7297962645347</v>
+        <v>1180.484829334418</v>
       </c>
       <c r="C2" t="n">
-        <v>465.7297962645347</v>
+        <v>798.5510706672253</v>
       </c>
       <c r="D2" t="n">
-        <v>465.7297962645347</v>
+        <v>798.5510706672253</v>
       </c>
       <c r="E2" t="n">
-        <v>465.7297962645347</v>
+        <v>798.5510706672253</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6190096151091</v>
+        <v>788.4402840177997</v>
       </c>
       <c r="G2" t="n">
-        <v>39.51502306929713</v>
+        <v>372.3362974719878</v>
       </c>
       <c r="H2" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="I2" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="J2" t="n">
-        <v>111.5135673421028</v>
+        <v>111.5135673421027</v>
       </c>
       <c r="K2" t="n">
-        <v>351.6539393868856</v>
+        <v>351.6539393868855</v>
       </c>
       <c r="L2" t="n">
-        <v>699.5393124718319</v>
+        <v>699.5393124718317</v>
       </c>
       <c r="M2" t="n">
         <v>1092.77847872492</v>
@@ -4343,37 +4343,37 @@
         <v>1471.109837412635</v>
       </c>
       <c r="O2" t="n">
-        <v>1653.162003322266</v>
+        <v>1776.114421885469</v>
       </c>
       <c r="P2" t="n">
-        <v>1881.31889977832</v>
+        <v>1881.318899778317</v>
       </c>
       <c r="Q2" t="n">
-        <v>1975.751153464857</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="R2" t="n">
-        <v>1885.11286696071</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.883891591064</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="T2" t="n">
-        <v>1473.524945322075</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.524945322075</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="V2" t="n">
-        <v>1473.524945322075</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="W2" t="n">
-        <v>1110.990015179676</v>
+        <v>1956.558509330944</v>
       </c>
       <c r="X2" t="n">
-        <v>1110.990015179676</v>
+        <v>1574.528368852437</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.448159755514</v>
+        <v>1574.528368852437</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>906.2984661375351</v>
+        <v>651.2606465848378</v>
       </c>
       <c r="C3" t="n">
-        <v>744.5947933784898</v>
+        <v>489.5569738257925</v>
       </c>
       <c r="D3" t="n">
-        <v>605.7561563687019</v>
+        <v>489.5569738257925</v>
       </c>
       <c r="E3" t="n">
-        <v>458.7281464255731</v>
+        <v>342.5289638826637</v>
       </c>
       <c r="F3" t="n">
-        <v>324.0343483754475</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="G3" t="n">
-        <v>195.3058483987321</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="H3" t="n">
         <v>107.8973083792361</v>
       </c>
       <c r="I3" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="J3" t="n">
-        <v>99.76916960240328</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="K3" t="n">
-        <v>329.259722162592</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="L3" t="n">
-        <v>329.259722162592</v>
+        <v>307.423519412228</v>
       </c>
       <c r="M3" t="n">
-        <v>792.4568729224565</v>
+        <v>792.4568729224544</v>
       </c>
       <c r="N3" t="n">
-        <v>1281.455283405008</v>
+        <v>1281.455283405006</v>
       </c>
       <c r="O3" t="n">
-        <v>1673.655234189159</v>
+        <v>1673.655234189157</v>
       </c>
       <c r="P3" t="n">
-        <v>1975.751153464857</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="Q3" t="n">
-        <v>1975.751153464857</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="R3" t="n">
-        <v>1915.966884559802</v>
+        <v>1915.9668845598</v>
       </c>
       <c r="S3" t="n">
-        <v>1915.966884559802</v>
+        <v>1763.16739757254</v>
       </c>
       <c r="T3" t="n">
-        <v>1915.966884559802</v>
+        <v>1763.16739757254</v>
       </c>
       <c r="U3" t="n">
-        <v>1697.472092158112</v>
+        <v>1544.67260517085</v>
       </c>
       <c r="V3" t="n">
-        <v>1697.472092158112</v>
+        <v>1316.276982619184</v>
       </c>
       <c r="W3" t="n">
-        <v>1456.156223391422</v>
+        <v>1074.961113852494</v>
       </c>
       <c r="X3" t="n">
-        <v>1258.239235269217</v>
+        <v>1003.20141571652</v>
       </c>
       <c r="Y3" t="n">
-        <v>1065.717908918796</v>
+        <v>810.6800893660986</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.3601563231855</v>
+        <v>1595.700922457603</v>
       </c>
       <c r="C4" t="n">
-        <v>116.3601563231855</v>
+        <v>1595.700922457603</v>
       </c>
       <c r="D4" t="n">
-        <v>116.3601563231855</v>
+        <v>1595.700922457603</v>
       </c>
       <c r="E4" t="n">
-        <v>116.3601563231855</v>
+        <v>1443.691908218922</v>
       </c>
       <c r="F4" t="n">
-        <v>116.3601563231855</v>
+        <v>1443.691908218922</v>
       </c>
       <c r="G4" t="n">
-        <v>39.51502306929713</v>
+        <v>1443.691908218922</v>
       </c>
       <c r="H4" t="n">
-        <v>39.51502306929713</v>
+        <v>1443.691908218922</v>
       </c>
       <c r="I4" t="n">
-        <v>39.51502306929713</v>
+        <v>1443.691908218922</v>
       </c>
       <c r="J4" t="n">
-        <v>39.51502306929713</v>
+        <v>1443.691908218922</v>
       </c>
       <c r="K4" t="n">
-        <v>73.11921081394054</v>
+        <v>1477.296095963565</v>
       </c>
       <c r="L4" t="n">
-        <v>173.7262902142</v>
+        <v>1577.903175363824</v>
       </c>
       <c r="M4" t="n">
-        <v>291.7197963418018</v>
+        <v>1695.896681491426</v>
       </c>
       <c r="N4" t="n">
-        <v>410.1421380914022</v>
+        <v>1814.319023241026</v>
       </c>
       <c r="O4" t="n">
-        <v>508.6057845870918</v>
+        <v>1912.782669736716</v>
       </c>
       <c r="P4" t="n">
-        <v>571.5742683152296</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="Q4" t="n">
-        <v>571.5742683152296</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="R4" t="n">
-        <v>571.5742683152296</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="S4" t="n">
-        <v>571.5742683152296</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="T4" t="n">
-        <v>338.3953151309084</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="U4" t="n">
-        <v>338.3953151309084</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="V4" t="n">
-        <v>338.3953151309084</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="W4" t="n">
-        <v>338.3953151309084</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="X4" t="n">
-        <v>338.3953151309084</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="Y4" t="n">
-        <v>116.3601563231855</v>
+        <v>1753.715994657131</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1553.308794107194</v>
+        <v>1584.525233374822</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.375035440002</v>
+        <v>1202.591474707629</v>
       </c>
       <c r="D5" t="n">
-        <v>798.5510706672254</v>
+        <v>1202.591474707629</v>
       </c>
       <c r="E5" t="n">
-        <v>798.5510706672254</v>
+        <v>1202.591474707629</v>
       </c>
       <c r="F5" t="n">
-        <v>788.4402840177999</v>
+        <v>788.4402840177997</v>
       </c>
       <c r="G5" t="n">
         <v>372.3362974719878</v>
       </c>
       <c r="H5" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929707</v>
       </c>
       <c r="I5" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929707</v>
       </c>
       <c r="J5" t="n">
-        <v>82.99340246543679</v>
+        <v>111.5135673421027</v>
       </c>
       <c r="K5" t="n">
-        <v>323.1337745102196</v>
+        <v>351.6539393868855</v>
       </c>
       <c r="L5" t="n">
-        <v>671.0191475951658</v>
+        <v>699.5393124718317</v>
       </c>
       <c r="M5" t="n">
-        <v>1064.258313848254</v>
+        <v>1092.77847872492</v>
       </c>
       <c r="N5" t="n">
-        <v>1442.589672535969</v>
+        <v>1471.109837412635</v>
       </c>
       <c r="O5" t="n">
-        <v>1747.594257008803</v>
+        <v>1653.162003322263</v>
       </c>
       <c r="P5" t="n">
-        <v>1975.751153464857</v>
+        <v>1881.318899778317</v>
       </c>
       <c r="Q5" t="n">
-        <v>1975.751153464857</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="R5" t="n">
-        <v>1975.751153464857</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="S5" t="n">
-        <v>1788.522178095211</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="T5" t="n">
-        <v>1564.163231826222</v>
+        <v>1966.555373853329</v>
       </c>
       <c r="U5" t="n">
-        <v>1564.163231826222</v>
+        <v>1966.555373853329</v>
       </c>
       <c r="V5" t="n">
-        <v>1564.163231826222</v>
+        <v>1966.555373853329</v>
       </c>
       <c r="W5" t="n">
-        <v>1564.163231826222</v>
+        <v>1966.555373853329</v>
       </c>
       <c r="X5" t="n">
-        <v>1564.163231826222</v>
+        <v>1584.525233374822</v>
       </c>
       <c r="Y5" t="n">
-        <v>1564.163231826222</v>
+        <v>1584.525233374822</v>
       </c>
     </row>
     <row r="6">
@@ -4641,55 +4641,55 @@
         <v>107.8973083792361</v>
       </c>
       <c r="I6" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929707</v>
       </c>
       <c r="J6" t="n">
-        <v>99.76916960240328</v>
+        <v>43.33790237888044</v>
       </c>
       <c r="K6" t="n">
-        <v>99.76916960240328</v>
+        <v>272.8284549390691</v>
       </c>
       <c r="L6" t="n">
-        <v>465.5910147725189</v>
+        <v>638.6503001091847</v>
       </c>
       <c r="M6" t="n">
-        <v>950.6243682827453</v>
+        <v>1123.683653619411</v>
       </c>
       <c r="N6" t="n">
-        <v>1123.683653619414</v>
+        <v>1123.683653619411</v>
       </c>
       <c r="O6" t="n">
-        <v>1515.883604403565</v>
+        <v>1515.883604403562</v>
       </c>
       <c r="P6" t="n">
-        <v>1817.979523679262</v>
+        <v>1817.979523679259</v>
       </c>
       <c r="Q6" t="n">
-        <v>1975.751153464857</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="R6" t="n">
-        <v>1915.966884559802</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="S6" t="n">
-        <v>1763.167397572543</v>
+        <v>1964.370498194854</v>
       </c>
       <c r="T6" t="n">
-        <v>1574.482293738528</v>
+        <v>1964.370498194854</v>
       </c>
       <c r="U6" t="n">
-        <v>1355.987501336838</v>
+        <v>1745.875705793164</v>
       </c>
       <c r="V6" t="n">
-        <v>1352.664978688452</v>
+        <v>1517.480083241498</v>
       </c>
       <c r="W6" t="n">
-        <v>1111.349109921762</v>
+        <v>1276.164214474808</v>
       </c>
       <c r="X6" t="n">
-        <v>1111.349109921762</v>
+        <v>1078.247226352602</v>
       </c>
       <c r="Y6" t="n">
-        <v>918.8277835713412</v>
+        <v>1078.247226352602</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.0173281218848</v>
+        <v>361.5066648736844</v>
       </c>
       <c r="C7" t="n">
-        <v>200.0173281218848</v>
+        <v>361.5066648736844</v>
       </c>
       <c r="D7" t="n">
-        <v>200.0173281218848</v>
+        <v>208.4347717014471</v>
       </c>
       <c r="E7" t="n">
-        <v>200.0173281218848</v>
+        <v>208.4347717014471</v>
       </c>
       <c r="F7" t="n">
-        <v>200.0173281218848</v>
+        <v>208.4347717014471</v>
       </c>
       <c r="G7" t="n">
-        <v>200.0173281218848</v>
+        <v>39.51502306929707</v>
       </c>
       <c r="H7" t="n">
-        <v>200.0173281218848</v>
+        <v>39.51502306929707</v>
       </c>
       <c r="I7" t="n">
-        <v>55.81428372456335</v>
+        <v>39.51502306929707</v>
       </c>
       <c r="J7" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929707</v>
       </c>
       <c r="K7" t="n">
-        <v>73.11921081394054</v>
+        <v>73.11921081394048</v>
       </c>
       <c r="L7" t="n">
         <v>173.7262902142</v>
       </c>
       <c r="M7" t="n">
-        <v>291.7197963418018</v>
+        <v>291.7197963418017</v>
       </c>
       <c r="N7" t="n">
-        <v>410.1421380914022</v>
+        <v>410.1421380914021</v>
       </c>
       <c r="O7" t="n">
         <v>508.6057845870918</v>
@@ -4747,28 +4747,28 @@
         <v>571.5742683152296</v>
       </c>
       <c r="R7" t="n">
-        <v>422.0524869296078</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="S7" t="n">
-        <v>422.0524869296078</v>
+        <v>361.5066648736844</v>
       </c>
       <c r="T7" t="n">
-        <v>422.0524869296078</v>
+        <v>361.5066648736844</v>
       </c>
       <c r="U7" t="n">
-        <v>422.0524869296078</v>
+        <v>361.5066648736844</v>
       </c>
       <c r="V7" t="n">
-        <v>422.0524869296078</v>
+        <v>361.5066648736844</v>
       </c>
       <c r="W7" t="n">
-        <v>422.0524869296078</v>
+        <v>361.5066648736844</v>
       </c>
       <c r="X7" t="n">
-        <v>422.0524869296078</v>
+        <v>361.5066648736844</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.0173281218848</v>
+        <v>361.5066648736844</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>928.0756797822316</v>
+        <v>1254.213192004034</v>
       </c>
       <c r="C8" t="n">
-        <v>546.1419211150389</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="D8" t="n">
-        <v>546.1419211150389</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="E8" t="n">
-        <v>546.1419211150389</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F8" t="n">
-        <v>536.0311344656134</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G8" t="n">
-        <v>119.9271479198014</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>119.9271479198014</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U8" t="n">
-        <v>1659.098493404309</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V8" t="n">
-        <v>1322.119219300251</v>
+        <v>1673.595244451756</v>
       </c>
       <c r="W8" t="n">
-        <v>1322.119219300251</v>
+        <v>1311.060314309357</v>
       </c>
       <c r="X8" t="n">
-        <v>1322.119219300251</v>
+        <v>1254.213192004034</v>
       </c>
       <c r="Y8" t="n">
-        <v>1322.119219300251</v>
+        <v>1254.213192004034</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>650.5650081937138</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>650.5650081937138</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>511.7263711839258</v>
       </c>
       <c r="E9" t="n">
         <v>473.7666968912813</v>
@@ -4890,16 +4890,16 @@
         <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>1122.37000734173</v>
+        <v>1039.975578367094</v>
       </c>
       <c r="N9" t="n">
-        <v>1633.635653464852</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O9" t="n">
-        <v>2025.835604249003</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4911,22 +4911,22 @@
         <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1670.134256765957</v>
       </c>
       <c r="V9" t="n">
-        <v>1471.194773857131</v>
+        <v>1441.738634214291</v>
       </c>
       <c r="W9" t="n">
-        <v>1471.194773857131</v>
+        <v>1200.422765447601</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>1002.505777325396</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>809.9844509749746</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>129.121274646195</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="C10" t="n">
-        <v>129.121274646195</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="D10" t="n">
-        <v>129.121274646195</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="E10" t="n">
-        <v>129.121274646195</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="H10" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="I10" t="n">
         <v>42.02425610119923</v>
@@ -4984,28 +4984,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S10" t="n">
-        <v>360.3737387508193</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="T10" t="n">
-        <v>360.3737387508193</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="U10" t="n">
-        <v>360.3737387508193</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="V10" t="n">
-        <v>360.3737387508193</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="W10" t="n">
-        <v>360.3737387508193</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="X10" t="n">
-        <v>129.121274646195</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="Y10" t="n">
-        <v>129.121274646195</v>
+        <v>186.2273004985207</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1859.607020008543</v>
+        <v>1566.785873643545</v>
       </c>
       <c r="C11" t="n">
-        <v>1570.495945598959</v>
+        <v>1277.674799233961</v>
       </c>
       <c r="D11" t="n">
-        <v>1290.494665083791</v>
+        <v>997.6735187187935</v>
       </c>
       <c r="E11" t="n">
-        <v>988.5316294475074</v>
+        <v>695.7104830825093</v>
       </c>
       <c r="F11" t="n">
-        <v>667.2031230152866</v>
+        <v>374.3819766502887</v>
       </c>
       <c r="G11" t="n">
-        <v>343.9218207270836</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H11" t="n">
-        <v>131.0951888956807</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I11" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J11" t="n">
         <v>123.0992186348914</v>
@@ -5045,19 +5045,19 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L11" t="n">
-        <v>789.8264789463606</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M11" t="n">
-        <v>1274.041158040331</v>
+        <v>1183.065645199448</v>
       </c>
       <c r="N11" t="n">
-        <v>1743.348029568929</v>
+        <v>1652.372516728047</v>
       </c>
       <c r="O11" t="n">
-        <v>2139.328126882646</v>
+        <v>2048.352614041763</v>
       </c>
       <c r="P11" t="n">
-        <v>2458.460536179582</v>
+        <v>2367.485023338699</v>
       </c>
       <c r="Q11" t="n">
         <v>2552.892789866119</v>
@@ -5075,16 +5075,16 @@
         <v>2392.97106607589</v>
       </c>
       <c r="V11" t="n">
-        <v>2148.81447622944</v>
+        <v>2392.97106607589</v>
       </c>
       <c r="W11" t="n">
-        <v>2148.81447622944</v>
+        <v>2168.725900070508</v>
       </c>
       <c r="X11" t="n">
-        <v>1859.607020008543</v>
+        <v>2168.725900070508</v>
       </c>
       <c r="Y11" t="n">
-        <v>1859.607020008543</v>
+        <v>1868.006728903955</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C12" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D12" t="n">
         <v>629.8711250952965</v>
@@ -5115,13 +5115,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I12" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J12" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K12" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L12" t="n">
         <v>706.6672186254962</v>
@@ -5142,22 +5142,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R12" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S12" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T12" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U12" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V12" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W12" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X12" t="n">
         <v>1267.641586535707</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>306.7415501891524</v>
+        <v>383.0845336296516</v>
       </c>
       <c r="C13" t="n">
-        <v>229.9482649084416</v>
+        <v>306.2912483489409</v>
       </c>
       <c r="D13" t="n">
-        <v>169.6990559938135</v>
+        <v>246.0420394343126</v>
       </c>
       <c r="E13" t="n">
-        <v>169.6990559938135</v>
+        <v>186.8557094532405</v>
       </c>
       <c r="F13" t="n">
-        <v>169.6990559938135</v>
+        <v>127.1977387366267</v>
       </c>
       <c r="G13" t="n">
-        <v>102.4810345017982</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H13" t="n">
-        <v>102.4810345017982</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I13" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
-        <v>83.214087664999</v>
+        <v>83.21408766499906</v>
       </c>
       <c r="K13" t="n">
-        <v>207.793788250525</v>
+        <v>207.7937882505251</v>
       </c>
       <c r="L13" t="n">
-        <v>399.3763804916671</v>
+        <v>399.3763804916672</v>
       </c>
       <c r="M13" t="n">
-        <v>608.3453994601514</v>
+        <v>608.3453994601516</v>
       </c>
       <c r="N13" t="n">
-        <v>817.7432540506343</v>
+        <v>817.7432540506346</v>
       </c>
       <c r="O13" t="n">
-        <v>1007.182413387206</v>
+        <v>1007.182413387207</v>
       </c>
       <c r="P13" t="n">
         <v>1161.126409956227</v>
       </c>
       <c r="Q13" t="n">
-        <v>1214.33147454359</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="R13" t="n">
-        <v>1214.33147454359</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="S13" t="n">
-        <v>1093.444396204887</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="T13" t="n">
-        <v>953.0881272781745</v>
+        <v>1073.975205616879</v>
       </c>
       <c r="U13" t="n">
-        <v>758.7205720248835</v>
+        <v>879.6076503635875</v>
       </c>
       <c r="V13" t="n">
-        <v>590.8079518409152</v>
+        <v>711.6950301796193</v>
       </c>
       <c r="W13" t="n">
-        <v>397.4742346159233</v>
+        <v>518.3613129546274</v>
       </c>
       <c r="X13" t="n">
-        <v>397.4742346159233</v>
+        <v>512.2970081797654</v>
       </c>
       <c r="Y13" t="n">
-        <v>397.4742346159233</v>
+        <v>383.0845336296516</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1646.780388177139</v>
+        <v>1439.224855946085</v>
       </c>
       <c r="C14" t="n">
-        <v>1357.669313767556</v>
+        <v>1277.674799233961</v>
       </c>
       <c r="D14" t="n">
-        <v>1077.668033252388</v>
+        <v>997.6735187187935</v>
       </c>
       <c r="E14" t="n">
-        <v>775.7049976161043</v>
+        <v>695.7104830825093</v>
       </c>
       <c r="F14" t="n">
-        <v>454.3764911838836</v>
+        <v>374.3819766502887</v>
       </c>
       <c r="G14" t="n">
-        <v>131.0951888956807</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H14" t="n">
-        <v>131.0951888956807</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I14" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J14" t="n">
-        <v>123.0992186348914</v>
+        <v>214.074731475774</v>
       </c>
       <c r="K14" t="n">
         <v>454.2151035205568</v>
       </c>
       <c r="L14" t="n">
-        <v>802.100476605503</v>
+        <v>893.0759894463856</v>
       </c>
       <c r="M14" t="n">
-        <v>1286.315155699474</v>
+        <v>1367.157599119382</v>
       </c>
       <c r="N14" t="n">
-        <v>1664.646514387189</v>
+        <v>1745.488957807097</v>
       </c>
       <c r="O14" t="n">
-        <v>2060.626611700906</v>
+        <v>2141.469055120814</v>
       </c>
       <c r="P14" t="n">
-        <v>2379.759020997842</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q14" t="n">
         <v>2555.033718104287</v>
@@ -5309,19 +5309,19 @@
         <v>2555.033718104287</v>
       </c>
       <c r="U14" t="n">
-        <v>2392.97106607589</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="V14" t="n">
-        <v>2148.814476229441</v>
+        <v>2310.877128257837</v>
       </c>
       <c r="W14" t="n">
-        <v>1879.10223034465</v>
+        <v>2041.164882373047</v>
       </c>
       <c r="X14" t="n">
-        <v>1646.780388177139</v>
+        <v>2041.164882373047</v>
       </c>
       <c r="Y14" t="n">
-        <v>1646.780388177139</v>
+        <v>1740.445711206494</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C15" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D15" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E15" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F15" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G15" t="n">
         <v>219.4208171253267</v>
@@ -5391,16 +5391,16 @@
         <v>1935.270065976268</v>
       </c>
       <c r="V15" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W15" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X15" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y15" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.2617600658102</v>
+        <v>440.7656458178529</v>
       </c>
       <c r="C16" t="n">
-        <v>191.4684747850995</v>
+        <v>363.9723605371422</v>
       </c>
       <c r="D16" t="n">
-        <v>131.2192658704714</v>
+        <v>363.9723605371422</v>
       </c>
       <c r="E16" t="n">
-        <v>131.2192658704714</v>
+        <v>304.7860305560701</v>
       </c>
       <c r="F16" t="n">
-        <v>117.6506353252029</v>
+        <v>245.1280598394562</v>
       </c>
       <c r="G16" t="n">
-        <v>117.6506353252029</v>
+        <v>169.0309954649153</v>
       </c>
       <c r="H16" t="n">
-        <v>51.10067436208574</v>
+        <v>102.4810345017982</v>
       </c>
       <c r="I16" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J16" t="n">
-        <v>83.21408766499908</v>
+        <v>83.21408766499906</v>
       </c>
       <c r="K16" t="n">
         <v>207.7937882505251</v>
@@ -5446,7 +5446,7 @@
         <v>608.3453994601516</v>
       </c>
       <c r="N16" t="n">
-        <v>817.7432540506347</v>
+        <v>817.7432540506346</v>
       </c>
       <c r="O16" t="n">
         <v>1007.182413387207</v>
@@ -5461,25 +5461,25 @@
         <v>1214.331474543591</v>
       </c>
       <c r="S16" t="n">
-        <v>1093.444396204887</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="T16" t="n">
-        <v>953.0881272781753</v>
+        <v>1073.975205616879</v>
       </c>
       <c r="U16" t="n">
-        <v>758.7205720248841</v>
+        <v>967.0532048257212</v>
       </c>
       <c r="V16" t="n">
-        <v>590.8079518409158</v>
+        <v>799.1405846417528</v>
       </c>
       <c r="W16" t="n">
-        <v>397.474234615924</v>
+        <v>799.1405846417528</v>
       </c>
       <c r="X16" t="n">
-        <v>397.474234615924</v>
+        <v>660.7108047947376</v>
       </c>
       <c r="Y16" t="n">
-        <v>268.2617600658102</v>
+        <v>531.4983302446237</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5510,16 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I17" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J17" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K17" t="n">
         <v>527.7073651707066</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.060512746685</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M17" t="n">
         <v>1433.299678999773</v>
@@ -5528,7 +5528,7 @@
         <v>1811.631037687489</v>
       </c>
       <c r="O17" t="n">
-        <v>2156.811378073378</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P17" t="n">
         <v>2384.968274529432</v>
@@ -5558,7 +5558,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y17" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="18">
@@ -5589,13 +5589,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I18" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J18" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K18" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L18" t="n">
         <v>706.6672186254962</v>
@@ -5616,16 +5616,16 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R18" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S18" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T18" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U18" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V18" t="n">
         <v>1721.587060884707</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C19" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D19" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E19" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F19" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G19" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H19" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I19" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J19" t="n">
-        <v>97.31943502373917</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K19" t="n">
-        <v>130.9236227683826</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L19" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M19" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O19" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P19" t="n">
-        <v>629.3786802696717</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q19" t="n">
         <v>629.3786802696717</v>
@@ -5704,19 +5704,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U19" t="n">
-        <v>398.7211345007349</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V19" t="n">
-        <v>305.7929665666898</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W19" t="n">
-        <v>187.4437015916211</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X19" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.77035169433847</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D20" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E20" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F20" t="n">
         <v>469.4217245791957</v>
@@ -5756,22 +5756,22 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L20" t="n">
-        <v>711.1249637646204</v>
+        <v>751.3007196776761</v>
       </c>
       <c r="M20" t="n">
-        <v>1268.831904508741</v>
+        <v>1309.007660421796</v>
       </c>
       <c r="N20" t="n">
-        <v>1647.163263196456</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O20" t="n">
-        <v>2067.976793470664</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P20" t="n">
-        <v>2296.133689926718</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q20" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R20" t="n">
         <v>2555.033718104287</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C21" t="n">
-        <v>753.9971446449797</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D21" t="n">
-        <v>615.1585076351918</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E21" t="n">
-        <v>468.130497692063</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F21" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G21" t="n">
-        <v>204.7081996652219</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H21" t="n">
         <v>119.4829596720247</v>
@@ -5829,13 +5829,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J21" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K21" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M21" t="n">
         <v>1191.700572135723</v>
@@ -5856,25 +5856,25 @@
         <v>2495.249449199232</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T21" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U21" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V21" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W21" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X21" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y21" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="22">
@@ -5917,19 +5917,19 @@
         <v>193.5785864171873</v>
       </c>
       <c r="M22" t="n">
-        <v>311.572092544789</v>
+        <v>331.6027317412594</v>
       </c>
       <c r="N22" t="n">
-        <v>429.9944342943894</v>
+        <v>450.0250734908598</v>
       </c>
       <c r="O22" t="n">
-        <v>528.4580807900791</v>
+        <v>548.4887199865494</v>
       </c>
       <c r="P22" t="n">
-        <v>629.3786802696717</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="Q22" t="n">
-        <v>629.3786802696717</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="R22" t="n">
         <v>629.3786802696717</v>
@@ -5963,64 +5963,64 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C23" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D23" t="n">
-        <v>942.7443621478536</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E23" t="n">
-        <v>715.7657787614927</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F23" t="n">
-        <v>469.4217245791953</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G23" t="n">
-        <v>221.1248745409155</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H23" t="n">
-        <v>56.11073664575747</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I23" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J23" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K23" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L23" t="n">
-        <v>711.1249637646204</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M23" t="n">
-        <v>1104.364130017708</v>
+        <v>1309.007660421796</v>
       </c>
       <c r="N23" t="n">
-        <v>1647.163263196456</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O23" t="n">
-        <v>1952.16784766929</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P23" t="n">
-        <v>2296.133689926718</v>
+        <v>2384.968274529431</v>
       </c>
       <c r="Q23" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215968</v>
       </c>
       <c r="R23" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="S23" t="n">
         <v>2535.611879242173</v>
       </c>
       <c r="T23" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U23" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V23" t="n">
         <v>2222.809732105716</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C24" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D24" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E24" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F24" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G24" t="n">
         <v>219.4208171253267</v>
@@ -6063,16 +6063,16 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I24" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J24" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K24" t="n">
-        <v>340.8453734553811</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L24" t="n">
-        <v>706.6672186254967</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M24" t="n">
         <v>1191.700572135723</v>
@@ -6084,34 +6084,34 @@
         <v>2095.166169042996</v>
       </c>
       <c r="P24" t="n">
-        <v>2397.262088318693</v>
+        <v>2397.262088318692</v>
       </c>
       <c r="Q24" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R24" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.449962211973</v>
+        <v>2342.449962211972</v>
       </c>
       <c r="T24" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U24" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V24" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W24" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X24" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y24" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.90950739287319</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C25" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54268635500837</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E25" t="n">
-        <v>65.54268635500837</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F25" t="n">
-        <v>65.54268635500837</v>
+        <v>65.91841943632294</v>
       </c>
       <c r="G25" t="n">
-        <v>64.43007423039064</v>
+        <v>64.80580731170521</v>
       </c>
       <c r="H25" t="n">
-        <v>64.43007423039064</v>
+        <v>73.07245222190386</v>
       </c>
       <c r="I25" t="n">
-        <v>64.43007423039064</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J25" t="n">
-        <v>64.43007423039064</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K25" t="n">
         <v>129.8110106437649</v>
@@ -6178,19 +6178,19 @@
         <v>516.991625379485</v>
       </c>
       <c r="U25" t="n">
-        <v>397.6085223761172</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V25" t="n">
-        <v>304.680354442072</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W25" t="n">
-        <v>186.3310894670034</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X25" t="n">
         <v>122.8857618699114</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.65773956972075</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1638.398690093981</v>
+        <v>1638.398690093982</v>
       </c>
       <c r="C26" t="n">
-        <v>1386.425607044544</v>
+        <v>1386.425607044545</v>
       </c>
       <c r="D26" t="n">
-        <v>1143.562317889524</v>
+        <v>1143.562317889525</v>
       </c>
       <c r="E26" t="n">
-        <v>878.7372736133867</v>
+        <v>878.7372736133876</v>
       </c>
       <c r="F26" t="n">
-        <v>594.5467585413132</v>
+        <v>594.5467585413139</v>
       </c>
       <c r="G26" t="n">
-        <v>308.4034476132574</v>
+        <v>308.4034476132579</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5428488283221</v>
+        <v>105.5428488283224</v>
       </c>
       <c r="I26" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487441</v>
       </c>
       <c r="J26" t="n">
-        <v>262.0593281006429</v>
+        <v>262.0593281006427</v>
       </c>
       <c r="K26" t="n">
-        <v>629.5741583183885</v>
+        <v>629.5741583183881</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.739858752426</v>
+        <v>1104.833989576297</v>
       </c>
       <c r="M26" t="n">
-        <v>1580.353483178477</v>
+        <v>1625.447614002348</v>
       </c>
       <c r="N26" t="n">
-        <v>2086.059300039156</v>
+        <v>2086.05930003916</v>
       </c>
       <c r="O26" t="n">
-        <v>2518.438342684953</v>
+        <v>2518.438342684957</v>
       </c>
       <c r="P26" t="n">
-        <v>2873.969697313968</v>
+        <v>2873.969697313973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3095.776409173468</v>
+        <v>3095.776409173472</v>
       </c>
       <c r="R26" t="n">
-        <v>3134.316282743717</v>
+        <v>3134.31628274372</v>
       </c>
       <c r="S26" t="n">
-        <v>3077.047982991827</v>
+        <v>3077.04798299183</v>
       </c>
       <c r="T26" t="n">
-        <v>2982.649712340595</v>
+        <v>2982.649712340598</v>
       </c>
       <c r="U26" t="n">
-        <v>2857.725051672345</v>
+        <v>2857.725051672348</v>
       </c>
       <c r="V26" t="n">
-        <v>2650.706453186043</v>
+        <v>2650.706453186045</v>
       </c>
       <c r="W26" t="n">
-        <v>2418.1321986614</v>
+        <v>2418.132198661402</v>
       </c>
       <c r="X26" t="n">
-        <v>2166.06273380065</v>
+        <v>2166.062733800652</v>
       </c>
       <c r="Y26" t="n">
-        <v>1902.481553994244</v>
+        <v>1902.481553994246</v>
       </c>
     </row>
     <row r="27">
@@ -6288,28 +6288,28 @@
         <v>641.4567763880852</v>
       </c>
       <c r="E27" t="n">
-        <v>494.4287664449564</v>
+        <v>494.4287664449565</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7349683948307</v>
+        <v>359.7349683948308</v>
       </c>
       <c r="G27" t="n">
-        <v>231.0064684181153</v>
+        <v>231.0064684181154</v>
       </c>
       <c r="H27" t="n">
         <v>131.0686109648134</v>
       </c>
       <c r="I27" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487441</v>
       </c>
       <c r="J27" t="n">
-        <v>122.9404721879805</v>
+        <v>122.9404721879806</v>
       </c>
       <c r="K27" t="n">
-        <v>352.4310247481691</v>
+        <v>352.4310247481692</v>
       </c>
       <c r="L27" t="n">
-        <v>718.2528699182848</v>
+        <v>718.2528699182849</v>
       </c>
       <c r="M27" t="n">
         <v>1203.286223428511</v>
@@ -6330,10 +6330,10 @@
         <v>2506.835100492021</v>
       </c>
       <c r="S27" t="n">
-        <v>2368.748230964866</v>
+        <v>2354.035613504762</v>
       </c>
       <c r="T27" t="n">
-        <v>2180.063127130852</v>
+        <v>2165.350509670747</v>
       </c>
       <c r="U27" t="n">
         <v>1961.568334729162</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6345665042396</v>
+        <v>252.6345665042411</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836761</v>
+        <v>212.9792725836774</v>
       </c>
       <c r="D28" t="n">
-        <v>189.8680550291951</v>
+        <v>189.8680550291961</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082701</v>
+        <v>167.8197164082709</v>
       </c>
       <c r="F28" t="n">
-        <v>145.2997370518034</v>
+        <v>145.2997370518041</v>
       </c>
       <c r="G28" t="n">
-        <v>106.3406640374096</v>
+        <v>106.3406640374101</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443962</v>
+        <v>76.92869443443989</v>
       </c>
       <c r="I28" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487441</v>
       </c>
       <c r="J28" t="n">
-        <v>62.68632565487435</v>
+        <v>108.7668422047148</v>
       </c>
       <c r="K28" t="n">
-        <v>96.29051339951775</v>
+        <v>269.7454881223208</v>
       </c>
       <c r="L28" t="n">
-        <v>324.2720509727401</v>
+        <v>497.727025695543</v>
       </c>
       <c r="M28" t="n">
-        <v>526.1165219036977</v>
+        <v>615.7205318231447</v>
       </c>
       <c r="N28" t="n">
-        <v>771.9133218262609</v>
+        <v>734.1428735727451</v>
       </c>
       <c r="O28" t="n">
-        <v>997.7514264949135</v>
+        <v>959.9809782413975</v>
       </c>
       <c r="P28" t="n">
-        <v>1060.719910223051</v>
+        <v>1150.323920142498</v>
       </c>
       <c r="Q28" t="n">
-        <v>1150.323920142495</v>
+        <v>1150.323920142498</v>
       </c>
       <c r="R28" t="n">
-        <v>1130.762814374629</v>
+        <v>1130.762814374632</v>
       </c>
       <c r="S28" t="n">
-        <v>1047.013727396073</v>
+        <v>1047.013727396076</v>
       </c>
       <c r="T28" t="n">
-        <v>943.7954498295079</v>
+        <v>943.7954498295105</v>
       </c>
       <c r="U28" t="n">
-        <v>786.565885936364</v>
+        <v>786.5658859363664</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125428</v>
+        <v>655.7912571125449</v>
       </c>
       <c r="W28" t="n">
-        <v>499.595531247698</v>
+        <v>499.5955312477001</v>
       </c>
       <c r="X28" t="n">
-        <v>398.30374276083</v>
+        <v>398.3037427608318</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.2292595708633</v>
+        <v>306.2292595708649</v>
       </c>
     </row>
     <row r="29">
@@ -6446,61 +6446,61 @@
         <v>1143.562317889524</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133867</v>
+        <v>878.7372736133868</v>
       </c>
       <c r="F29" t="n">
-        <v>594.5467585413132</v>
+        <v>594.5467585413131</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4034476132574</v>
+        <v>308.4034476132571</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5428488283221</v>
+        <v>105.5428488283224</v>
       </c>
       <c r="I29" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487441</v>
       </c>
       <c r="J29" t="n">
-        <v>216.9651972767718</v>
+        <v>262.0593281006427</v>
       </c>
       <c r="K29" t="n">
-        <v>584.4800274945175</v>
+        <v>629.5741583183881</v>
       </c>
       <c r="L29" t="n">
-        <v>1059.739858752426</v>
+        <v>1104.833989576297</v>
       </c>
       <c r="M29" t="n">
-        <v>1580.353483178477</v>
+        <v>1625.447614002348</v>
       </c>
       <c r="N29" t="n">
-        <v>2086.059300039156</v>
+        <v>2131.153430863026</v>
       </c>
       <c r="O29" t="n">
-        <v>2518.438342684953</v>
+        <v>2563.532473508823</v>
       </c>
       <c r="P29" t="n">
-        <v>2873.969697313968</v>
+        <v>2873.969697313973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3095.776409173468</v>
+        <v>3095.776409173472</v>
       </c>
       <c r="R29" t="n">
-        <v>3134.316282743717</v>
+        <v>3134.31628274372</v>
       </c>
       <c r="S29" t="n">
-        <v>3077.047982991828</v>
+        <v>3077.047982991829</v>
       </c>
       <c r="T29" t="n">
-        <v>2982.649712340595</v>
+        <v>2982.649712340596</v>
       </c>
       <c r="U29" t="n">
-        <v>2857.725051672345</v>
+        <v>2857.725051672346</v>
       </c>
       <c r="V29" t="n">
-        <v>2650.706453186042</v>
+        <v>2650.706453186044</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.1321986614</v>
+        <v>2418.132198661401</v>
       </c>
       <c r="X29" t="n">
         <v>2166.06273380065</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.9990861569185</v>
+        <v>927.2864686968139</v>
       </c>
       <c r="C30" t="n">
-        <v>780.2954133978732</v>
+        <v>765.5827959377687</v>
       </c>
       <c r="D30" t="n">
-        <v>641.4567763880852</v>
+        <v>626.7441589279807</v>
       </c>
       <c r="E30" t="n">
-        <v>494.4287664449564</v>
+        <v>479.7161489848519</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7349683948307</v>
+        <v>345.0223509347263</v>
       </c>
       <c r="G30" t="n">
-        <v>231.0064684181153</v>
+        <v>216.2938509580109</v>
       </c>
       <c r="H30" t="n">
         <v>131.0686109648134</v>
       </c>
       <c r="I30" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487441</v>
       </c>
       <c r="J30" t="n">
-        <v>122.9404721879805</v>
+        <v>122.9404721879806</v>
       </c>
       <c r="K30" t="n">
-        <v>352.4310247481691</v>
+        <v>352.4310247481692</v>
       </c>
       <c r="L30" t="n">
-        <v>718.2528699182848</v>
+        <v>718.2528699182849</v>
       </c>
       <c r="M30" t="n">
         <v>1203.286223428511</v>
@@ -6573,19 +6573,19 @@
         <v>2165.350509670747</v>
       </c>
       <c r="U30" t="n">
-        <v>1961.568334729162</v>
+        <v>1946.855717269057</v>
       </c>
       <c r="V30" t="n">
-        <v>1733.172712177496</v>
+        <v>1718.460094717391</v>
       </c>
       <c r="W30" t="n">
-        <v>1491.856843410806</v>
+        <v>1477.144225950701</v>
       </c>
       <c r="X30" t="n">
-        <v>1293.9398552886</v>
+        <v>1279.227237828496</v>
       </c>
       <c r="Y30" t="n">
-        <v>1101.418528938179</v>
+        <v>1086.705911478075</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.6345665042396</v>
+        <v>252.6345665042411</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836761</v>
+        <v>212.9792725836774</v>
       </c>
       <c r="D31" t="n">
-        <v>189.8680550291951</v>
+        <v>189.8680550291961</v>
       </c>
       <c r="E31" t="n">
-        <v>167.8197164082701</v>
+        <v>167.8197164082709</v>
       </c>
       <c r="F31" t="n">
-        <v>145.2997370518034</v>
+        <v>145.2997370518041</v>
       </c>
       <c r="G31" t="n">
-        <v>106.3406640374096</v>
+        <v>106.3406640374101</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443962</v>
+        <v>76.92869443443989</v>
       </c>
       <c r="I31" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487441</v>
       </c>
       <c r="J31" t="n">
-        <v>131.1986842898679</v>
+        <v>131.1986842898677</v>
       </c>
       <c r="K31" t="n">
-        <v>292.1773302074741</v>
+        <v>292.1773302074738</v>
       </c>
       <c r="L31" t="n">
-        <v>392.7844096077337</v>
+        <v>520.1588677806959</v>
       </c>
       <c r="M31" t="n">
-        <v>510.7779157353354</v>
+        <v>765.5268320812603</v>
       </c>
       <c r="N31" t="n">
-        <v>644.5388636532982</v>
+        <v>988.8917899186705</v>
       </c>
       <c r="O31" t="n">
-        <v>870.3769683219507</v>
+        <v>1087.35543641436</v>
       </c>
       <c r="P31" t="n">
-        <v>1060.719910223051</v>
+        <v>1150.323920142498</v>
       </c>
       <c r="Q31" t="n">
-        <v>1150.323920142495</v>
+        <v>1150.323920142498</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.762814374629</v>
+        <v>1130.762814374632</v>
       </c>
       <c r="S31" t="n">
-        <v>1047.013727396073</v>
+        <v>1047.013727396076</v>
       </c>
       <c r="T31" t="n">
-        <v>943.7954498295079</v>
+        <v>943.7954498295105</v>
       </c>
       <c r="U31" t="n">
-        <v>786.565885936364</v>
+        <v>786.5658859363664</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125428</v>
+        <v>655.7912571125449</v>
       </c>
       <c r="W31" t="n">
-        <v>499.595531247698</v>
+        <v>499.5955312477001</v>
       </c>
       <c r="X31" t="n">
-        <v>398.30374276083</v>
+        <v>398.3037427608318</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.2292595708633</v>
+        <v>306.2292595708649</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1578.511661732583</v>
+        <v>1578.511661732584</v>
       </c>
       <c r="C32" t="n">
-        <v>1334.73540658736</v>
+        <v>1334.735406587361</v>
       </c>
       <c r="D32" t="n">
         <v>1100.068945336554</v>
       </c>
       <c r="E32" t="n">
-        <v>843.4407289646301</v>
+        <v>843.4407289646307</v>
       </c>
       <c r="F32" t="n">
-        <v>567.4470417967701</v>
+        <v>567.4470417967707</v>
       </c>
       <c r="G32" t="n">
-        <v>289.5005587729277</v>
+        <v>289.5005587729283</v>
       </c>
       <c r="H32" t="n">
-        <v>94.83678789220662</v>
+        <v>94.83678789220656</v>
       </c>
       <c r="I32" t="n">
         <v>60.17709262297225</v>
       </c>
       <c r="J32" t="n">
-        <v>267.5838060976603</v>
+        <v>132.1756368957779</v>
       </c>
       <c r="K32" t="n">
-        <v>643.1323473443256</v>
+        <v>507.7241781424431</v>
       </c>
       <c r="L32" t="n">
-        <v>1126.425889631154</v>
+        <v>991.0177204292718</v>
       </c>
       <c r="M32" t="n">
-        <v>1655.073225086124</v>
+        <v>1519.665055884242</v>
       </c>
       <c r="N32" t="n">
-        <v>2063.870973530255</v>
+        <v>2033.40458377384</v>
       </c>
       <c r="O32" t="n">
-        <v>2504.283727204971</v>
+        <v>2473.817337448557</v>
       </c>
       <c r="P32" t="n">
-        <v>2732.440623661025</v>
+        <v>2837.382403106492</v>
       </c>
       <c r="Q32" t="n">
         <v>2962.281046549444</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>924.7772356649118</v>
+        <v>939.4898531250163</v>
       </c>
       <c r="C33" t="n">
-        <v>763.0735629058665</v>
+        <v>777.7861803659711</v>
       </c>
       <c r="D33" t="n">
-        <v>624.2349258960786</v>
+        <v>638.9475433561831</v>
       </c>
       <c r="E33" t="n">
-        <v>477.2069159529498</v>
+        <v>491.9195334130543</v>
       </c>
       <c r="F33" t="n">
-        <v>342.5131179028242</v>
+        <v>357.2257353629286</v>
       </c>
       <c r="G33" t="n">
-        <v>213.7846179261088</v>
+        <v>228.4972353862132</v>
       </c>
       <c r="H33" t="n">
-        <v>113.8467604728068</v>
+        <v>128.5593779329113</v>
       </c>
       <c r="I33" t="n">
         <v>60.17709262297225</v>
@@ -6801,28 +6801,28 @@
         <v>2564.110136365174</v>
       </c>
       <c r="R33" t="n">
-        <v>2504.325867460119</v>
+        <v>2519.038484920224</v>
       </c>
       <c r="S33" t="n">
-        <v>2351.52638047286</v>
+        <v>2366.238997932964</v>
       </c>
       <c r="T33" t="n">
-        <v>2162.841276638845</v>
+        <v>2177.55389409895</v>
       </c>
       <c r="U33" t="n">
-        <v>1944.346484237155</v>
+        <v>1959.05910169726</v>
       </c>
       <c r="V33" t="n">
-        <v>1715.950861685489</v>
+        <v>1730.663479145594</v>
       </c>
       <c r="W33" t="n">
-        <v>1474.634992918799</v>
+        <v>1489.347610378904</v>
       </c>
       <c r="X33" t="n">
-        <v>1276.718004796594</v>
+        <v>1291.430622256698</v>
       </c>
       <c r="Y33" t="n">
-        <v>1084.196678446173</v>
+        <v>1098.909295906277</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>192.7475381428434</v>
+        <v>192.747538142843</v>
       </c>
       <c r="C34" t="n">
-        <v>161.2890721264934</v>
+        <v>161.289072126493</v>
       </c>
       <c r="D34" t="n">
-        <v>146.3746824762258</v>
+        <v>146.3746824762255</v>
       </c>
       <c r="E34" t="n">
-        <v>132.5231717595142</v>
+        <v>132.523171759514</v>
       </c>
       <c r="F34" t="n">
-        <v>118.200020307261</v>
+        <v>118.2000203072608</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43777519708063</v>
+        <v>87.43777519708051</v>
       </c>
       <c r="H34" t="n">
-        <v>66.22263349832409</v>
+        <v>66.22263349832403</v>
       </c>
       <c r="I34" t="n">
         <v>60.17709262297225</v>
       </c>
       <c r="J34" t="n">
-        <v>60.17709262297225</v>
+        <v>78.38168779159665</v>
       </c>
       <c r="K34" t="n">
-        <v>229.1894495694981</v>
+        <v>247.3940447381225</v>
       </c>
       <c r="L34" t="n">
-        <v>329.7965289697576</v>
+        <v>348.0011241383821</v>
       </c>
       <c r="M34" t="n">
-        <v>447.7900350973594</v>
+        <v>465.9946302659838</v>
       </c>
       <c r="N34" t="n">
-        <v>566.2123768469597</v>
+        <v>584.4169720155842</v>
       </c>
       <c r="O34" t="n">
-        <v>800.0841925445318</v>
+        <v>818.2887877131564</v>
       </c>
       <c r="P34" t="n">
-        <v>919.0277196948147</v>
+        <v>1016.665440643177</v>
       </c>
       <c r="Q34" t="n">
-        <v>1016.665440643178</v>
+        <v>1016.665440643177</v>
       </c>
       <c r="R34" t="n">
         <v>1005.301162779525</v>
       </c>
       <c r="S34" t="n">
-        <v>929.7489037051827</v>
+        <v>929.7489037051819</v>
       </c>
       <c r="T34" t="n">
-        <v>834.7274540428311</v>
+        <v>834.7274540428303</v>
       </c>
       <c r="U34" t="n">
-        <v>685.6947180539006</v>
+        <v>685.6947180538999</v>
       </c>
       <c r="V34" t="n">
-        <v>563.1169171342929</v>
+        <v>563.1169171342922</v>
       </c>
       <c r="W34" t="n">
-        <v>415.1180191736615</v>
+        <v>415.118019173661</v>
       </c>
       <c r="X34" t="n">
-        <v>322.0230585910069</v>
+        <v>322.0230585910064</v>
       </c>
       <c r="Y34" t="n">
-        <v>238.1454033052536</v>
+        <v>238.1454033052532</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>238.9081644362655</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>479.0485364810483</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>826.9339095659946</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M35" t="n">
-        <v>1220.173075819082</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N35" t="n">
-        <v>1762.97220899783</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O35" t="n">
-        <v>2067.976793470664</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P35" t="n">
         <v>2460.60146441775</v>
@@ -7011,13 +7011,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7038,25 +7038,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S36" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U36" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X36" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y36" t="n">
         <v>1089.832877645391</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H37" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I37" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J37" t="n">
-        <v>59.36731927228439</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K37" t="n">
-        <v>92.9715070169278</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L37" t="n">
-        <v>193.5785864171873</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M37" t="n">
         <v>349.5242082962438</v>
@@ -7126,19 +7126,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007349</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666898</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W37" t="n">
-        <v>187.4437015916211</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X37" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433847</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>715.765778761493</v>
       </c>
       <c r="F38" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791956</v>
       </c>
       <c r="G38" t="n">
         <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575747</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J38" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>692.175139661739</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.060512746685</v>
+        <v>751.3007196776769</v>
       </c>
       <c r="M38" t="n">
-        <v>1433.299678999773</v>
+        <v>1144.539885930765</v>
       </c>
       <c r="N38" t="n">
-        <v>1811.631037687489</v>
+        <v>1522.87124461848</v>
       </c>
       <c r="O38" t="n">
-        <v>2232.444567961697</v>
+        <v>1992.343603582347</v>
       </c>
       <c r="P38" t="n">
-        <v>2460.60146441775</v>
+        <v>2220.5005000384</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7217,7 +7217,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y38" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="39">
@@ -7248,13 +7248,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J40" t="n">
-        <v>97.31943502373917</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="K40" t="n">
-        <v>130.9236227683826</v>
+        <v>84.70486210672917</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P40" t="n">
         <v>629.3786802696717</v>
@@ -7363,19 +7363,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X40" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7391,40 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D41" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478537</v>
       </c>
       <c r="E41" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614928</v>
       </c>
       <c r="F41" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791953</v>
       </c>
       <c r="G41" t="n">
-        <v>221.1248745409159</v>
+        <v>221.1248745409155</v>
       </c>
       <c r="H41" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575756</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J41" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707065</v>
       </c>
       <c r="L41" t="n">
-        <v>711.1249637646204</v>
+        <v>875.5927382556526</v>
       </c>
       <c r="M41" t="n">
-        <v>1268.831904508741</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N41" t="n">
-        <v>1647.163263196456</v>
+        <v>1762.972208997831</v>
       </c>
       <c r="O41" t="n">
-        <v>2116.635622160323</v>
+        <v>2067.976793470665</v>
       </c>
       <c r="P41" t="n">
         <v>2460.60146441775</v>
@@ -7454,7 +7454,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y41" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>753.9971446449797</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351918</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>468.130497692063</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4366996419374</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
-        <v>204.7081996652219</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H42" t="n">
-        <v>104.77034221192</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
@@ -7494,7 +7494,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M42" t="n">
         <v>1191.700572135723</v>
@@ -7512,22 +7512,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
         <v>1267.641586535707</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749108</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670356</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670356</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670356</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670356</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672917</v>
       </c>
       <c r="L43" t="n">
         <v>185.3119415069887</v>
@@ -7582,37 +7582,37 @@
         <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>629.3786802696717</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q43" t="n">
-        <v>629.3786802696717</v>
+        <v>629.3786802696726</v>
       </c>
       <c r="R43" t="n">
-        <v>629.3786802696717</v>
+        <v>629.3786802696726</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808915</v>
+        <v>583.4760541808923</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041027</v>
+        <v>518.1042375041034</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007349</v>
+        <v>398.7211345007354</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666898</v>
+        <v>305.7929665666902</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916211</v>
+        <v>187.4437015916215</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945291</v>
+        <v>123.9983739945295</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433847</v>
+        <v>69.77035169433873</v>
       </c>
     </row>
     <row r="44">
@@ -7628,46 +7628,46 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.7443621478542</v>
+        <v>942.7443621478544</v>
       </c>
       <c r="E44" t="n">
-        <v>715.7657787614933</v>
+        <v>715.7657787614935</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791961</v>
       </c>
       <c r="G44" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409162</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575752</v>
+        <v>56.11073664575753</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259237</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707065</v>
       </c>
       <c r="L44" t="n">
-        <v>875.5927382556528</v>
+        <v>875.5927382556526</v>
       </c>
       <c r="M44" t="n">
-        <v>1268.831904508741</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N44" t="n">
-        <v>1687.339019109512</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O44" t="n">
-        <v>1992.343603582346</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P44" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7688,7 +7688,7 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y44" t="n">
         <v>1588.124215583246</v>
@@ -7722,7 +7722,7 @@
         <v>104.7703422119204</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749102</v>
+        <v>54.02211951749103</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.21328648670353</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.21328648670353</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.21328648670353</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.21328648670353</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672915</v>
+        <v>130.9236227683833</v>
       </c>
       <c r="L46" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686428</v>
       </c>
       <c r="M46" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962445</v>
       </c>
       <c r="N46" t="n">
-        <v>450.0250734908604</v>
+        <v>467.9465500458449</v>
       </c>
       <c r="O46" t="n">
-        <v>548.4887199865501</v>
+        <v>566.4101965415346</v>
       </c>
       <c r="P46" t="n">
-        <v>611.4572037146879</v>
+        <v>629.3786802696724</v>
       </c>
       <c r="Q46" t="n">
-        <v>611.4572037146879</v>
+        <v>629.3786802696724</v>
       </c>
       <c r="R46" t="n">
         <v>629.3786802696724</v>
@@ -7991,10 +7991,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>370.8458734565154</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>418.3383206229274</v>
+        <v>294.1439584378712</v>
       </c>
       <c r="Q2" t="n">
         <v>276.0094878578761</v>
@@ -8055,19 +8055,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>383.190076341785</v>
       </c>
       <c r="M3" t="n">
-        <v>583.3598124200889</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>600.6529294339225</v>
+        <v>600.6529294339218</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>191.0173523735282</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
@@ -8228,13 +8228,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>495.0402356415689</v>
+        <v>370.8458734565124</v>
       </c>
       <c r="P5" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8292,10 +8292,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>106.9170659187711</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
@@ -8304,7 +8304,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>281.5224999936364</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8538,7 +8538,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>522.1898869410242</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8547,10 +8547,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>184.992792701879</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9732,7 +9732,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>414.0015992319174</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -11142,7 +11142,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.092448894497</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.2086467078061</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>26.90023873054204</v>
+        <v>237.5986042436309</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>79.19456938825898</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46222820091667</v>
+        <v>93.46222820091661</v>
       </c>
       <c r="T11" t="n">
         <v>130.220899391266</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W11" t="n">
-        <v>267.0151234259421</v>
+        <v>45.01240908061342</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>286.3153816586886</v>
       </c>
       <c r="Y11" t="n">
-        <v>297.7119794548875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>89.82535758250306</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.59446668126144</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>59.06139100944775</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>8.790252453700452</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.884461353486</v>
+        <v>65.88446135348595</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>50.86655653831529</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.13210615673266</v>
+        <v>56.1321061567326</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>119.6782075553163</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>137.0454820485451</v>
+        <v>131.0418203214324</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.9203498046128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>298.208646707806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>126.2854075204854</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>237.5986042436308</v>
+        <v>237.5986042436309</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>79.19456938825898</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.4622282009166</v>
+        <v>93.46222820091661</v>
       </c>
       <c r="T14" t="n">
         <v>130.220899391266</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>160.4420255081129</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>56.31675791285237</v>
+        <v>286.3153816586886</v>
       </c>
       <c r="Y14" t="n">
-        <v>297.7119794548873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.82535758250305</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>59.64671682548193</v>
       </c>
       <c r="E16" t="n">
-        <v>58.59446668126137</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>45.62844676963193</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>75.33609373079551</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>50.86655653831528</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.13210615673259</v>
+        <v>56.1321061567326</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>119.6782075553163</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>86.57109891751233</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>191.4003800527419</v>
       </c>
       <c r="X16" t="n">
-        <v>137.045482048545</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>2.486899575160351e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>916665.2751292447</v>
+        <v>916665.2751292448</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>916665.2751292449</v>
+        <v>916665.2751292448</v>
       </c>
     </row>
     <row r="7">
@@ -26320,40 +26320,40 @@
         <v>287859.0226853181</v>
       </c>
       <c r="E2" t="n">
-        <v>249999.620489794</v>
+        <v>249999.6204897941</v>
       </c>
       <c r="F2" t="n">
-        <v>249999.6204897941</v>
+        <v>249999.6204897942</v>
       </c>
       <c r="G2" t="n">
         <v>287859.0226853187</v>
       </c>
       <c r="H2" t="n">
+        <v>287859.0226853187</v>
+      </c>
+      <c r="I2" t="n">
         <v>287859.0226853186</v>
       </c>
-      <c r="I2" t="n">
-        <v>287859.0226853185</v>
-      </c>
       <c r="J2" t="n">
-        <v>287859.0226853185</v>
+        <v>287859.0226853184</v>
       </c>
       <c r="K2" t="n">
         <v>287859.0226853184</v>
       </c>
       <c r="L2" t="n">
-        <v>287859.0226853188</v>
+        <v>287859.0226853187</v>
       </c>
       <c r="M2" t="n">
         <v>287859.0226853187</v>
       </c>
       <c r="N2" t="n">
-        <v>287859.0226853187</v>
+        <v>287859.0226853186</v>
       </c>
       <c r="O2" t="n">
-        <v>287859.0226853187</v>
+        <v>287859.0226853186</v>
       </c>
       <c r="P2" t="n">
-        <v>287859.0226853187</v>
+        <v>287859.0226853186</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165529.9134506508</v>
+        <v>165529.9134506506</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9743.038208746846</v>
+        <v>9743.038208747077</v>
       </c>
       <c r="E3" t="n">
         <v>107390.8010757635</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59387.68618193917</v>
+        <v>59387.68618193919</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>210668.4794422432</v>
+        <v>210668.4794422431</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>65879.57388207623</v>
+        <v>65879.57388207645</v>
       </c>
       <c r="M3" t="n">
-        <v>23482.5093245656</v>
+        <v>23482.50932456556</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.16890732368</v>
+        <v>43541.1689073235</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194229.0330603501</v>
+        <v>194229.0330603503</v>
       </c>
       <c r="C4" t="n">
-        <v>194229.0330603501</v>
+        <v>194229.0330603503</v>
       </c>
       <c r="D4" t="n">
-        <v>185775.7593332931</v>
+        <v>185775.7593332932</v>
       </c>
       <c r="E4" t="n">
-        <v>118181.7253353294</v>
+        <v>118181.7253353295</v>
       </c>
       <c r="F4" t="n">
         <v>118181.7253353295</v>
@@ -26439,10 +26439,10 @@
         <v>175623.1205402357</v>
       </c>
       <c r="J4" t="n">
-        <v>176368.812935792</v>
+        <v>176368.8129357921</v>
       </c>
       <c r="K4" t="n">
-        <v>176368.812935792</v>
+        <v>176368.8129357921</v>
       </c>
       <c r="L4" t="n">
         <v>176200.8165314007</v>
@@ -26454,10 +26454,10 @@
         <v>175623.1205402357</v>
       </c>
       <c r="O4" t="n">
+        <v>175623.1205402356</v>
+      </c>
+      <c r="P4" t="n">
         <v>175623.1205402357</v>
-      </c>
-      <c r="P4" t="n">
-        <v>175623.1205402356</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63659.01753266582</v>
+        <v>63659.01753266578</v>
       </c>
       <c r="C5" t="n">
-        <v>63659.01753266582</v>
+        <v>63659.01753266577</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46561.98765560956</v>
+        <v>46561.98765560957</v>
       </c>
       <c r="F5" t="n">
         <v>46561.98765560957</v>
@@ -26488,13 +26488,13 @@
         <v>52802.81689264637</v>
       </c>
       <c r="I5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="J5" t="n">
-        <v>58458.01489582856</v>
+        <v>58458.01489582859</v>
       </c>
       <c r="K5" t="n">
-        <v>58458.01489582856</v>
+        <v>58458.01489582859</v>
       </c>
       <c r="L5" t="n">
         <v>57233.20592541149</v>
@@ -26503,13 +26503,13 @@
         <v>52802.81689264637</v>
       </c>
       <c r="N5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264638</v>
       </c>
       <c r="O5" t="n">
         <v>52802.81689264637</v>
       </c>
       <c r="P5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264638</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-135558.9413583486</v>
+        <v>-135558.9413583485</v>
       </c>
       <c r="C6" t="n">
-        <v>29970.97209230233</v>
+        <v>29970.9720923022</v>
       </c>
       <c r="D6" t="n">
-        <v>26774.19050636678</v>
+        <v>26774.19050636649</v>
       </c>
       <c r="E6" t="n">
-        <v>-22134.89357690842</v>
+        <v>-22387.28959154532</v>
       </c>
       <c r="F6" t="n">
-        <v>85255.90749885507</v>
+        <v>85003.51148421835</v>
       </c>
       <c r="G6" t="n">
         <v>45.39907049751491</v>
       </c>
       <c r="H6" t="n">
+        <v>59433.08525243661</v>
+      </c>
+      <c r="I6" t="n">
         <v>59433.08525243658</v>
       </c>
-      <c r="I6" t="n">
-        <v>59433.08525243645</v>
-      </c>
       <c r="J6" t="n">
-        <v>-157636.2845885453</v>
+        <v>-157636.2845885454</v>
       </c>
       <c r="K6" t="n">
-        <v>53032.19485369779</v>
+        <v>53032.19485369767</v>
       </c>
       <c r="L6" t="n">
-        <v>-11454.57365356968</v>
+        <v>-11454.57365357003</v>
       </c>
       <c r="M6" t="n">
         <v>35950.57592787105</v>
       </c>
       <c r="N6" t="n">
-        <v>59433.08525243663</v>
+        <v>59433.08525243653</v>
       </c>
       <c r="O6" t="n">
-        <v>15891.91634511296</v>
+        <v>15891.91634511313</v>
       </c>
       <c r="P6" t="n">
-        <v>59433.08525243666</v>
+        <v>59433.08525243657</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="F2" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26707,13 +26707,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J2" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="K2" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="L2" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662141</v>
+        <v>493.9377883662135</v>
       </c>
       <c r="C4" t="n">
-        <v>493.9377883662141</v>
+        <v>493.9377883662134</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="F4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="G4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="H4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="I4" t="n">
-        <v>638.7584295260718</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="J4" t="n">
-        <v>783.5790706859293</v>
+        <v>783.5790706859301</v>
       </c>
       <c r="K4" t="n">
-        <v>783.5790706859293</v>
+        <v>783.5790706859301</v>
       </c>
       <c r="L4" t="n">
         <v>752.2136577871531</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="N4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260718</v>
       </c>
       <c r="O4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260718</v>
       </c>
       <c r="P4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260718</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.23460772742396</v>
+        <v>74.23460772742398</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.42646113415459</v>
+        <v>54.42646113415445</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>82.3494673525953</v>
+        <v>82.34946735259557</v>
       </c>
       <c r="M2" t="n">
-        <v>29.353136655707</v>
+        <v>29.35313665570695</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415459</v>
+        <v>54.42646113415437</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662141</v>
+        <v>493.9377883662135</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.36541289877619</v>
+        <v>31.36541289877693</v>
       </c>
       <c r="E4" t="n">
         <v>113.4552282610814</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260718</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.23460772742396</v>
+        <v>74.23460772742398</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415459</v>
+        <v>54.42646113415445</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>493.9377883662141</v>
+        <v>493.9377883662135</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.36541289877619</v>
+        <v>31.36541289877693</v>
       </c>
       <c r="M4" t="n">
         <v>113.4552282610814</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140.9019242667695</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -27439,13 +27439,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>339.908863148404</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,10 +27470,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>12.40402425946796</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -27515,13 +27515,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>124.8957170863691</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>25.28489352000304</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
@@ -27543,13 +27543,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>91.15386922447898</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
@@ -27588,7 +27588,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>379.3572107810019</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>213.0115349908894</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
@@ -27679,7 +27679,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>140.0046434000871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>222.8223689042477</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
@@ -27786,16 +27786,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>43.32039815125544</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>3.605737563219577</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -27840,7 +27840,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>93.96516390287583</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>321.9311879914514</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27932,13 +27932,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>107.9776522939794</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27983,16 +27983,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>215.9598310420857</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>64.72980006493482</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28029,7 +28029,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -28056,16 +28056,16 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>48.36726184743185</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28074,7 +28074,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="C11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="D11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="E11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="F11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="G11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="H11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="I11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28117,46 +28117,46 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>79.49647998155575</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>91.8944574150329</v>
+        <v>79.49647998155569</v>
       </c>
       <c r="N11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="O11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="P11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="R11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="S11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="T11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="U11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="V11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="W11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="X11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
     </row>
     <row r="12">
@@ -28169,10 +28169,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>14.5654912855037</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="C13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="D13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="E13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="F13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="G13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="H13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="I13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="J13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="K13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="L13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="M13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="N13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="O13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="P13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="R13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="S13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="T13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="U13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="V13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="W13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="X13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503296</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="C14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="D14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="E14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="F14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="G14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="H14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="I14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="K14" t="n">
-        <v>91.89445741503297</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="M14" t="n">
-        <v>91.89445741503297</v>
+        <v>81.65903375748303</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="P14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Q14" t="n">
-        <v>81.65903375748312</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="T14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="U14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="V14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="W14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="X14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
     </row>
     <row r="15">
@@ -28418,7 +28418,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -28463,7 +28463,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>14.56549128550378</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="C16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="D16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="E16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="F16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="G16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="H16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="I16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="J16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="K16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="L16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="M16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="N16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="O16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="P16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="R16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="S16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="U16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="V16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="W16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="X16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.89445741503297</v>
+        <v>91.89445741503296</v>
       </c>
     </row>
     <row r="17">
@@ -28585,25 +28585,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L17" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>40.58157162934918</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>14.56549128550353</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28700,7 +28700,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>14.56549128550378</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
-        <v>106.142283029922</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.15196793284785</v>
+        <v>84.83758476280077</v>
       </c>
       <c r="R19" t="n">
         <v>148.0265635717656</v>
@@ -28828,7 +28828,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>40.58157162934913</v>
       </c>
       <c r="M20" t="n">
         <v>166.1290651424569</v>
@@ -28837,16 +28837,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>116.9787331327011</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="R20" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>166.1290651424569</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28928,7 +28928,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>14.56549128550395</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>20.2329688853236</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28998,13 +28998,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>38.33547045601499</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S22" t="n">
         <v>166.1290651424569</v>
@@ -29059,7 +29059,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29068,22 +29068,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>40.58157162934879</v>
       </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>116.9787331327018</v>
-      </c>
       <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="R23" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>166.1290651424569</v>
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>14.56549128550328</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29177,7 +29177,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>14.56549128550415</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29199,28 +29199,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D25" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>165.9232676913869</v>
       </c>
       <c r="G25" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I25" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J25" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K25" t="n">
-        <v>32.09772592801092</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="C26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="D26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="E26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="F26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="G26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="H26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="J26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="K26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="L26" t="n">
-        <v>83.1114417667593</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="M26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="N26" t="n">
-        <v>128.6610688615786</v>
+        <v>83.11144176676436</v>
       </c>
       <c r="O26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="P26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="R26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="S26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="T26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="U26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="V26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="W26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="X26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
     </row>
     <row r="27">
@@ -29402,13 +29402,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="C28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="D28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="E28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="F28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="G28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="H28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="I28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="J28" t="n">
-        <v>59.456666199969</v>
+        <v>106.0026425129391</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="L28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="M28" t="n">
-        <v>84.69794424581406</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>128.6610688615786</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.6610688615786</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="S28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="T28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="U28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="V28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="W28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="X28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="C29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="D29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="E29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="F29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="G29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="H29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="J29" t="n">
-        <v>83.11144176675944</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="K29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="L29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="M29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="N29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="O29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="P29" t="n">
-        <v>128.6610688615786</v>
+        <v>83.11144176676407</v>
       </c>
       <c r="Q29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="R29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="S29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="T29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="U29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="V29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="W29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="X29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="Y29" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
     </row>
     <row r="30">
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>14.56549128550344</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29645,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="C31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="D31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="E31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="F31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="G31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="H31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="I31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="J31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="K31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="N31" t="n">
-        <v>15.49354158420449</v>
+        <v>106.0026425129392</v>
       </c>
       <c r="O31" t="n">
-        <v>128.6610688615786</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>128.6610688615786</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.6610688615786</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="S31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="T31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="U31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="V31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="W31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="X31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615784</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="C32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="D32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="E32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="F32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="G32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="H32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="I32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="L32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="M32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="N32" t="n">
-        <v>30.77413106708565</v>
+        <v>136.77592848675</v>
       </c>
       <c r="O32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>136.77592848675</v>
       </c>
       <c r="Q32" t="n">
-        <v>136.7759284867499</v>
+        <v>30.77413106708551</v>
       </c>
       <c r="R32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="S32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="T32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="U32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="V32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="W32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="X32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="Y32" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>14.56549128550339</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="C34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="D34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="E34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="F34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="G34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="H34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="I34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="J34" t="n">
-        <v>59.456666199969</v>
+        <v>77.84514616827647</v>
       </c>
       <c r="K34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29943,37 +29943,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="P34" t="n">
-        <v>56.54044790115665</v>
+        <v>136.77592848675</v>
       </c>
       <c r="Q34" t="n">
-        <v>136.7759284867499</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="S34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="T34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="U34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="V34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="W34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="X34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
       <c r="Y34" t="n">
-        <v>136.7759284867499</v>
+        <v>136.77592848675</v>
       </c>
     </row>
     <row r="35">
@@ -30007,25 +30007,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9787331327011</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="P35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>14.56549128550347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30159,13 +30159,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
-        <v>59.456666199969</v>
+        <v>106.142283029922</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>38.33547045601497</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30244,31 +30244,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>40.58157162934998</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K38" t="n">
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>116.9787331327008</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30402,7 +30402,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>106.142283029922</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>46.68561682995293</v>
       </c>
       <c r="Q40" t="n">
         <v>38.15196793284785</v>
@@ -30484,22 +30484,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
+        <v>116.9787331327016</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="P41" t="n">
-        <v>116.9787331327009</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30551,13 +30551,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>14.56549128550328</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>14.56549128550371</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30654,13 +30654,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>46.68561682995295</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>84.8375847628017</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
@@ -30718,31 +30718,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>116.9787331327016</v>
+      </c>
+      <c r="N44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>40.58157162934924</v>
-      </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>14.56549128550326</v>
+        <v>14.56549128550327</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30879,7 +30879,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>46.68561682995363</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>28.58311525926233</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
         <v>166.1290651424569</v>
@@ -32789,7 +32789,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>183.8910766763949</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>230.4615115717709</v>
+        <v>106.2671493867147</v>
       </c>
       <c r="Q2" t="n">
         <v>95.38611483488586</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>270.6146427706373</v>
       </c>
       <c r="M3" t="n">
-        <v>467.875909858449</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>493.9377883662141</v>
+        <v>493.9377883662135</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>43.91755494559561</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
@@ -34948,13 +34948,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>308.0854388614484</v>
+        <v>183.8910766763919</v>
       </c>
       <c r="P5" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>3.861494252104415</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
@@ -35024,7 +35024,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>174.8073589259281</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35258,7 +35258,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>406.7059843793842</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35267,10 +35267,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>76.13858667773572</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>430.8958467340267</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>489.1057364585561</v>
+        <v>476.7077590250789</v>
       </c>
       <c r="N11" t="n">
-        <v>474.0473449783821</v>
+        <v>474.0473449783822</v>
       </c>
       <c r="O11" t="n">
-        <v>399.9798962764813</v>
+        <v>399.9798962764814</v>
       </c>
       <c r="P11" t="n">
-        <v>322.3559689868038</v>
+        <v>322.3559689868039</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>187.2805722499188</v>
       </c>
       <c r="R11" t="n">
-        <v>2.162553775927719</v>
+        <v>2.162553775927776</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.4377912150639</v>
+        <v>32.43779121506396</v>
       </c>
       <c r="K13" t="n">
-        <v>125.8380813995212</v>
+        <v>125.8380813995213</v>
       </c>
       <c r="L13" t="n">
         <v>193.5177699405476</v>
       </c>
       <c r="M13" t="n">
-        <v>211.0798171398831</v>
+        <v>211.0798171398832</v>
       </c>
       <c r="N13" t="n">
         <v>211.5129844348313</v>
       </c>
       <c r="O13" t="n">
-        <v>191.3526861985578</v>
+        <v>191.3526861985579</v>
       </c>
       <c r="P13" t="n">
-        <v>155.4989864333539</v>
+        <v>155.498986433354</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.74248948218505</v>
+        <v>53.74248948218511</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.72580229576329</v>
+        <v>164.6202597107962</v>
       </c>
       <c r="K14" t="n">
-        <v>334.4604897835004</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
-        <v>351.3993667524709</v>
+        <v>443.2938241675039</v>
       </c>
       <c r="M14" t="n">
-        <v>489.1057364585562</v>
+        <v>478.8703128010062</v>
       </c>
       <c r="N14" t="n">
         <v>382.1528875633492</v>
@@ -35665,7 +35665,7 @@
         <v>322.3559689868039</v>
       </c>
       <c r="Q14" t="n">
-        <v>177.045148592369</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.43779121506397</v>
+        <v>32.43779121506396</v>
       </c>
       <c r="K16" t="n">
         <v>125.8380813995213</v>
@@ -35823,7 +35823,7 @@
         <v>155.498986433354</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.74248948218512</v>
+        <v>53.74248948218511</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K17" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N17" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>348.6670104907976</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717709</v>
+        <v>271.0430832011201</v>
       </c>
       <c r="Q17" t="n">
         <v>95.38611483488586</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>46.68561682995296</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>33.9436239844883</v>
@@ -36060,7 +36060,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>46.68561682995292</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>351.3993667524709</v>
+        <v>391.9809383818201</v>
       </c>
       <c r="M20" t="n">
         <v>563.3403441859801</v>
@@ -36133,16 +36133,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>425.0641719941495</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P20" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M22" t="n">
-        <v>119.1853597248502</v>
+        <v>139.4183286101738</v>
       </c>
       <c r="N22" t="n">
         <v>119.6185270197983</v>
@@ -36294,13 +36294,13 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P22" t="n">
-        <v>101.939999474336</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
@@ -36364,22 +36364,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
-        <v>397.2112790435232</v>
+        <v>437.792850672872</v>
       </c>
       <c r="N23" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
-        <v>347.4402447044727</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q23" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
-        <v>231.8086389496861</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
@@ -36452,7 +36452,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077741</v>
       </c>
       <c r="Q24" t="n">
         <v>159.3652826117113</v>
@@ -36495,28 +36495,28 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>14.96741926690627</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>66.04134991249921</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L25" t="n">
         <v>101.6233125255146</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>201.3868711573419</v>
+        <v>201.3868711573417</v>
       </c>
       <c r="K26" t="n">
-        <v>371.2271012300461</v>
+        <v>371.2271012300458</v>
       </c>
       <c r="L26" t="n">
-        <v>434.5108085192302</v>
+        <v>480.0604356140494</v>
       </c>
       <c r="M26" t="n">
-        <v>525.8723479051018</v>
+        <v>525.8723479051016</v>
       </c>
       <c r="N26" t="n">
-        <v>510.8139564249278</v>
+        <v>465.2643293301136</v>
       </c>
       <c r="O26" t="n">
-        <v>436.7465077230271</v>
+        <v>436.7465077230269</v>
       </c>
       <c r="P26" t="n">
-        <v>359.1225804333495</v>
+        <v>359.1225804333494</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.0471836964645</v>
+        <v>224.0471836964643</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247344</v>
+        <v>38.92916522247324</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>46.54597631297007</v>
       </c>
       <c r="K28" t="n">
-        <v>33.9436239844883</v>
+        <v>162.6046928460667</v>
       </c>
       <c r="L28" t="n">
-        <v>230.2843813870933</v>
+        <v>230.2843813870931</v>
       </c>
       <c r="M28" t="n">
-        <v>203.8833039706643</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N28" t="n">
-        <v>248.279595881377</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O28" t="n">
-        <v>228.1192976451036</v>
+        <v>228.1192976451034</v>
       </c>
       <c r="P28" t="n">
-        <v>63.604529018321</v>
+        <v>192.2655978798994</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.50910092873077</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>155.8372440625227</v>
+        <v>201.3868711573417</v>
       </c>
       <c r="K29" t="n">
-        <v>371.2271012300461</v>
+        <v>371.2271012300458</v>
       </c>
       <c r="L29" t="n">
-        <v>480.0604356140495</v>
+        <v>480.0604356140494</v>
       </c>
       <c r="M29" t="n">
-        <v>525.8723479051018</v>
+        <v>525.8723479051016</v>
       </c>
       <c r="N29" t="n">
-        <v>510.8139564249278</v>
+        <v>510.8139564249277</v>
       </c>
       <c r="O29" t="n">
-        <v>436.7465077230271</v>
+        <v>436.7465077230269</v>
       </c>
       <c r="P29" t="n">
-        <v>359.1225804333495</v>
+        <v>313.572953338535</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.0471836964645</v>
+        <v>224.0471836964643</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247344</v>
+        <v>38.92916522247324</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.20440266160963</v>
+        <v>69.20440266160944</v>
       </c>
       <c r="K31" t="n">
-        <v>162.6046928460669</v>
+        <v>162.6046928460667</v>
       </c>
       <c r="L31" t="n">
-        <v>101.6233125255146</v>
+        <v>230.2843813870931</v>
       </c>
       <c r="M31" t="n">
-        <v>119.1853597248502</v>
+        <v>247.8464285864287</v>
       </c>
       <c r="N31" t="n">
-        <v>135.1120686040028</v>
+        <v>225.6211695327376</v>
       </c>
       <c r="O31" t="n">
-        <v>228.1192976451036</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P31" t="n">
-        <v>192.2655978798996</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.50910092873077</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>209.5017307825132</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K32" t="n">
         <v>379.3419608552174</v>
@@ -37075,22 +37075,22 @@
         <v>488.1752952392209</v>
       </c>
       <c r="M32" t="n">
-        <v>533.9872075302731</v>
+        <v>533.9872075302732</v>
       </c>
       <c r="N32" t="n">
-        <v>412.9270186304349</v>
+        <v>518.9288160500992</v>
       </c>
       <c r="O32" t="n">
         <v>444.8613673481984</v>
       </c>
       <c r="P32" t="n">
-        <v>230.4615115717709</v>
+        <v>367.2374400585209</v>
       </c>
       <c r="Q32" t="n">
-        <v>232.1620433216358</v>
+        <v>126.1602459019714</v>
       </c>
       <c r="R32" t="n">
-        <v>47.04402484764475</v>
+        <v>47.04402484764481</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>18.38847996830747</v>
       </c>
       <c r="K34" t="n">
-        <v>170.7195524712382</v>
+        <v>170.7195524712383</v>
       </c>
       <c r="L34" t="n">
         <v>101.6233125255146</v>
@@ -37242,10 +37242,10 @@
         <v>236.2341572702749</v>
       </c>
       <c r="P34" t="n">
-        <v>120.1449769194777</v>
+        <v>200.380457505071</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.62396055390208</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>189.7045354284644</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>425.0641719941493</v>
       </c>
       <c r="P35" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
@@ -37455,13 +37455,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="K37" t="n">
         <v>33.9436239844883</v>
@@ -37470,7 +37470,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>157.5208301808652</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>351.3993667524709</v>
+        <v>391.9809383818209</v>
       </c>
       <c r="M38" t="n">
         <v>397.2112790435232</v>
@@ -37555,16 +37555,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>425.0641719941493</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
@@ -37716,7 +37716,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>63.604529018321</v>
+        <v>110.2901458482739</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109243</v>
       </c>
       <c r="L41" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
-        <v>563.3403441859801</v>
+        <v>514.1900121762247</v>
       </c>
       <c r="N41" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>347.4402447044718</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q41" t="n">
         <v>95.38611483488586</v>
@@ -37862,7 +37862,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L42" t="n">
-        <v>369.5170153233492</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M42" t="n">
         <v>489.93268031336</v>
@@ -37950,13 +37950,13 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
-        <v>146.1438456134779</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>46.68561682995384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>397.2112790435232</v>
+        <v>514.1900121762247</v>
       </c>
       <c r="N44" t="n">
-        <v>422.7344591926985</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O44" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>76.3971615033517</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>33.9436239844883</v>
+        <v>80.62924081444193</v>
       </c>
       <c r="L46" t="n">
         <v>101.6233125255146</v>
@@ -38184,7 +38184,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
-        <v>148.2016422790607</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
         <v>99.45822878352493</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.10250157069132</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
